--- a/DefenceOfTheAncientsRPG/template.xlsx
+++ b/DefenceOfTheAncientsRPG/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruudd\source\repos\dota2rpg\DefenceOfTheAncientsRPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5AD0BA-40EA-42B9-92C8-5C0D076A2BD3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2DD6802-9F96-4687-A252-9BC6F4D89CDB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7725" windowHeight="7980" xr2:uid="{1D94DD81-E627-4215-84AA-0CDE563F018D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Name</t>
   </si>
@@ -63,20 +63,23 @@
     <t>Cost</t>
   </si>
   <si>
-    <t>Divine Rapier</t>
-  </si>
-  <si>
-    <t>Hearth of Terrasque</t>
-  </si>
-  <si>
-    <t>Butterfly</t>
+    <t>&lt;-- Do not edit this row</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> | Add new content here</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> | </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> v</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,13 +95,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -110,14 +137,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -430,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D346AF-AAE5-428F-835C-886AB7847D3E}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,9 +476,11 @@
     <col min="6" max="6" width="13.140625" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
     <col min="10" max="10" width="18.140625" customWidth="1"/>
+    <col min="13" max="13" width="34.7109375" customWidth="1"/>
+    <col min="14" max="14" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,119 +517,23 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>330</v>
-      </c>
-      <c r="L2">
-        <v>6200</v>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M2" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3">
-        <v>35</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>500</v>
-      </c>
-      <c r="F3">
-        <v>10</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>6000</v>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M3" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>35</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>30</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>35</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M4" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/DefenceOfTheAncientsRPG/template.xlsx
+++ b/DefenceOfTheAncientsRPG/template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruudd\source\repos\dota2rpg\DefenceOfTheAncientsRPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2DD6802-9F96-4687-A252-9BC6F4D89CDB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620F0F24-D522-4FC6-91DB-3075AB93E6EE}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7725" windowHeight="7980" xr2:uid="{1D94DD81-E627-4215-84AA-0CDE563F018D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Name</t>
   </si>
@@ -69,10 +69,7 @@
     <t xml:space="preserve"> | Add new content here</t>
   </si>
   <si>
-    <t xml:space="preserve"> | </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> v</t>
+    <t>Divine Rapier</t>
   </si>
 </sst>
 </file>
@@ -463,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D346AF-AAE5-428F-835C-886AB7847D3E}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,18 +519,44 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>330</v>
+      </c>
+      <c r="L2">
+        <v>6200</v>
+      </c>
       <c r="M2" s="3" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M3" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M4" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
